--- a/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H2">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I2">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J2">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>63.83331596276935</v>
+        <v>67.38250183668499</v>
       </c>
       <c r="R2">
-        <v>63.83331596276935</v>
+        <v>269.53000734674</v>
       </c>
       <c r="S2">
-        <v>0.007449315140760841</v>
+        <v>0.007068036682641663</v>
       </c>
       <c r="T2">
-        <v>0.007449315140760841</v>
+        <v>0.00378051239348248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H3">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I3">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J3">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>246.1713590347118</v>
+        <v>261.878189647127</v>
       </c>
       <c r="R3">
-        <v>246.1713590347118</v>
+        <v>1571.269137882762</v>
       </c>
       <c r="S3">
-        <v>0.02872807098331719</v>
+        <v>0.02746951508710477</v>
       </c>
       <c r="T3">
-        <v>0.02872807098331719</v>
+        <v>0.02203911359532028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H4">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I4">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J4">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>353.3050258526119</v>
+        <v>360.4314125678629</v>
       </c>
       <c r="R4">
-        <v>353.3050258526119</v>
+        <v>2162.588475407178</v>
       </c>
       <c r="S4">
-        <v>0.04123051479772415</v>
+        <v>0.03780718103611656</v>
       </c>
       <c r="T4">
-        <v>0.04123051479772415</v>
+        <v>0.03033314403008754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H5">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I5">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J5">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>352.1139743030654</v>
+        <v>356.6848501975223</v>
       </c>
       <c r="R5">
-        <v>352.1139743030654</v>
+        <v>2140.109101185134</v>
       </c>
       <c r="S5">
-        <v>0.04109151969449876</v>
+        <v>0.03741418820347354</v>
       </c>
       <c r="T5">
-        <v>0.04109151969449876</v>
+        <v>0.03001784127889948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H6">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I6">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J6">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>48.00677606946311</v>
+        <v>52.71239905806801</v>
       </c>
       <c r="R6">
-        <v>48.00677606946311</v>
+        <v>316.274394348408</v>
       </c>
       <c r="S6">
-        <v>0.005602366075451047</v>
+        <v>0.005529227321886568</v>
       </c>
       <c r="T6">
-        <v>0.005602366075451047</v>
+        <v>0.004436163822149592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.48136126541836</v>
+        <v>4.495339</v>
       </c>
       <c r="H7">
-        <v>4.48136126541836</v>
+        <v>8.990677999999999</v>
       </c>
       <c r="I7">
-        <v>0.1375270345602936</v>
+        <v>0.1274106381683396</v>
       </c>
       <c r="J7">
-        <v>0.1375270345602936</v>
+        <v>0.09709078547908702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>115.0411914220055</v>
+        <v>115.568683411162</v>
       </c>
       <c r="R7">
-        <v>115.0411914220055</v>
+        <v>462.2747336446479</v>
       </c>
       <c r="S7">
-        <v>0.01342524786854161</v>
+        <v>0.01212248983711644</v>
       </c>
       <c r="T7">
-        <v>0.01342524786854161</v>
+        <v>0.006484010359147648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H8">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J8">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>5.935012563220895</v>
+        <v>6.941543125311667</v>
       </c>
       <c r="R8">
-        <v>5.935012563220895</v>
+        <v>41.64925875187</v>
       </c>
       <c r="S8">
-        <v>0.0006926129135073236</v>
+        <v>0.0007281279279709164</v>
       </c>
       <c r="T8">
-        <v>0.0006926129135073236</v>
+        <v>0.0005841855622711526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H9">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J9">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>22.88820636277644</v>
+        <v>26.97790520482567</v>
       </c>
       <c r="R9">
-        <v>22.88820636277644</v>
+        <v>242.801146843431</v>
       </c>
       <c r="S9">
-        <v>0.002671041910192066</v>
+        <v>0.002829827008660059</v>
       </c>
       <c r="T9">
-        <v>0.002671041910192066</v>
+        <v>0.003405605015297948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H10">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J10">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>32.84914367142277</v>
+        <v>37.13056247333767</v>
       </c>
       <c r="R10">
-        <v>32.84914367142277</v>
+        <v>334.175062260039</v>
       </c>
       <c r="S10">
-        <v>0.003833478170792204</v>
+        <v>0.003894782331542764</v>
       </c>
       <c r="T10">
-        <v>0.003833478170792204</v>
+        <v>0.004687244202986282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H11">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J11">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>32.7384036009222</v>
+        <v>36.74460286132412</v>
       </c>
       <c r="R11">
-        <v>32.7384036009222</v>
+        <v>330.701425751917</v>
       </c>
       <c r="S11">
-        <v>0.003820554861522951</v>
+        <v>0.003854297389289629</v>
       </c>
       <c r="T11">
-        <v>0.003820554861522951</v>
+        <v>0.004638521888173615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H12">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J12">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>4.463512740873046</v>
+        <v>5.430273161822668</v>
       </c>
       <c r="R12">
-        <v>4.463512740873046</v>
+        <v>48.87245845640401</v>
       </c>
       <c r="S12">
-        <v>0.0005208896410920838</v>
+        <v>0.0005696044055703377</v>
       </c>
       <c r="T12">
-        <v>0.0005208896410920838</v>
+        <v>0.0006855004261425429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.416662286917729</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H13">
-        <v>0.416662286917729</v>
+        <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01278681305501845</v>
+        <v>0.01312546158663854</v>
       </c>
       <c r="J13">
-        <v>0.01278681305501845</v>
+        <v>0.01500300202804008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>10.69615303669525</v>
+        <v>11.90553894508733</v>
       </c>
       <c r="R13">
-        <v>10.69615303669525</v>
+        <v>71.433233670524</v>
       </c>
       <c r="S13">
-        <v>0.001248235557911821</v>
+        <v>0.001248822523604832</v>
       </c>
       <c r="T13">
-        <v>0.001248235557911821</v>
+        <v>0.001001944933168542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H14">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I14">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J14">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>96.3653872766364</v>
+        <v>101.9025349980283</v>
       </c>
       <c r="R14">
-        <v>96.3653872766364</v>
+        <v>611.41520998817</v>
       </c>
       <c r="S14">
-        <v>0.01124579113050962</v>
+        <v>0.0106889895119346</v>
       </c>
       <c r="T14">
-        <v>0.01124579113050962</v>
+        <v>0.008575901442952737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H15">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I15">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J15">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>371.630362483941</v>
+        <v>396.0382986434023</v>
       </c>
       <c r="R15">
-        <v>371.630362483941</v>
+        <v>3564.344687790621</v>
       </c>
       <c r="S15">
-        <v>0.04336907215712749</v>
+        <v>0.04154213848169389</v>
       </c>
       <c r="T15">
-        <v>0.04336907215712749</v>
+        <v>0.04999461618201476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H16">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I16">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J16">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>533.3637322386082</v>
+        <v>545.0803047147942</v>
       </c>
       <c r="R16">
-        <v>533.3637322386082</v>
+        <v>4905.722742433149</v>
       </c>
       <c r="S16">
-        <v>0.06224327322138698</v>
+        <v>0.05717578723994732</v>
       </c>
       <c r="T16">
-        <v>0.06224327322138698</v>
+        <v>0.06880920536205261</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H17">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I17">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J17">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>531.5656720547156</v>
+        <v>539.4143796948052</v>
       </c>
       <c r="R17">
-        <v>531.5656720547156</v>
+        <v>4854.729417253247</v>
       </c>
       <c r="S17">
-        <v>0.06203344052274287</v>
+        <v>0.0565814643105399</v>
       </c>
       <c r="T17">
-        <v>0.06203344052274287</v>
+        <v>0.06809395699425401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H18">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I18">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J18">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>72.47299467467413</v>
+        <v>79.71694347092934</v>
       </c>
       <c r="R18">
-        <v>72.47299467467413</v>
+        <v>717.4524912383641</v>
       </c>
       <c r="S18">
-        <v>0.008457561202698765</v>
+        <v>0.008361848630171313</v>
       </c>
       <c r="T18">
-        <v>0.008457561202698765</v>
+        <v>0.0100632135974834</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.76524644466899</v>
+        <v>6.798299666666666</v>
       </c>
       <c r="H19">
-        <v>6.76524644466899</v>
+        <v>20.394899</v>
       </c>
       <c r="I19">
-        <v>0.2076164420808054</v>
+        <v>0.1926830655017586</v>
       </c>
       <c r="J19">
-        <v>0.2076164420808054</v>
+        <v>0.2202455436260365</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>173.6708926513093</v>
+        <v>174.7744812818806</v>
       </c>
       <c r="R19">
-        <v>173.6708926513093</v>
+        <v>1048.646887691284</v>
       </c>
       <c r="S19">
-        <v>0.02026730384633965</v>
+        <v>0.01833283732747158</v>
       </c>
       <c r="T19">
-        <v>0.02026730384633965</v>
+        <v>0.01470865004727897</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H20">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I20">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J20">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>114.512505067964</v>
+        <v>127.34305479378</v>
       </c>
       <c r="R20">
-        <v>114.512505067964</v>
+        <v>764.05832876268</v>
       </c>
       <c r="S20">
-        <v>0.01336355044295005</v>
+        <v>0.01335755363823642</v>
       </c>
       <c r="T20">
-        <v>0.01336355044295005</v>
+        <v>0.01071692168773935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H21">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I21">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J21">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>441.6142037097307</v>
+        <v>494.911404957276</v>
       </c>
       <c r="R21">
-        <v>441.6142037097307</v>
+        <v>4454.202644615484</v>
       </c>
       <c r="S21">
-        <v>0.05153615043261522</v>
+        <v>0.05191335835784162</v>
       </c>
       <c r="T21">
-        <v>0.05153615043261522</v>
+        <v>0.06247604289710249</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H22">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I22">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J22">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>633.8045102823946</v>
+        <v>681.1625550988439</v>
       </c>
       <c r="R22">
-        <v>633.8045102823946</v>
+        <v>6130.462995889596</v>
       </c>
       <c r="S22">
-        <v>0.07396466035828227</v>
+        <v>0.0714500322049397</v>
       </c>
       <c r="T22">
-        <v>0.07396466035828227</v>
+        <v>0.08598779617117341</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H23">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I23">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J23">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>631.6678470909789</v>
+        <v>674.082101209332</v>
       </c>
       <c r="R23">
-        <v>631.6678470909789</v>
+        <v>6066.738910883988</v>
       </c>
       <c r="S23">
-        <v>0.07371531286281763</v>
+        <v>0.07070733333718146</v>
       </c>
       <c r="T23">
-        <v>0.07371531286281763</v>
+        <v>0.08509398217436263</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H24">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I24">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J24">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>86.1207992258673</v>
+        <v>99.61871017838401</v>
       </c>
       <c r="R24">
-        <v>86.1207992258673</v>
+        <v>896.5683916054561</v>
       </c>
       <c r="S24">
-        <v>0.01005025297419697</v>
+        <v>0.01044942943087532</v>
       </c>
       <c r="T24">
-        <v>0.01005025297419697</v>
+        <v>0.01257554937735981</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.039248735204421</v>
+        <v>8.495531999999999</v>
       </c>
       <c r="H25">
-        <v>8.039248735204421</v>
+        <v>25.486596</v>
       </c>
       <c r="I25">
-        <v>0.246713882939326</v>
+        <v>0.2407874364312792</v>
       </c>
       <c r="J25">
-        <v>0.246713882939326</v>
+        <v>0.275231036505607</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>206.3758527509449</v>
+        <v>218.407877162856</v>
       </c>
       <c r="R25">
-        <v>206.3758527509449</v>
+        <v>1310.447262977136</v>
       </c>
       <c r="S25">
-        <v>0.02408395586846382</v>
+        <v>0.02290972946220464</v>
       </c>
       <c r="T25">
-        <v>0.02408395586846382</v>
+        <v>0.01838074419786929</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H26">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I26">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J26">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>85.62918831960145</v>
+        <v>94.12194437867669</v>
       </c>
       <c r="R26">
-        <v>85.62918831960145</v>
+        <v>564.73166627206</v>
       </c>
       <c r="S26">
-        <v>0.009992882234291416</v>
+        <v>0.009872850330230089</v>
       </c>
       <c r="T26">
-        <v>0.009992882234291416</v>
+        <v>0.007921103421286119</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H27">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I27">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J27">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>330.2265179827115</v>
+        <v>365.7994839624087</v>
       </c>
       <c r="R27">
-        <v>330.2265179827115</v>
+        <v>3292.195355661678</v>
       </c>
       <c r="S27">
-        <v>0.03853726479953059</v>
+        <v>0.03837026083424647</v>
       </c>
       <c r="T27">
-        <v>0.03853726479953059</v>
+        <v>0.04617736431785459</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H28">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I28">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J28">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>473.9409528817224</v>
+        <v>503.4616471834647</v>
       </c>
       <c r="R28">
-        <v>473.9409528817224</v>
+        <v>4531.154824651182</v>
       </c>
       <c r="S28">
-        <v>0.05530866543401274</v>
+        <v>0.05281022956405843</v>
       </c>
       <c r="T28">
-        <v>0.05530866543401274</v>
+        <v>0.06355539830244032</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H29">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I29">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J29">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>472.3432170302125</v>
+        <v>498.2283340024385</v>
       </c>
       <c r="R29">
-        <v>472.3432170302125</v>
+        <v>4484.055006021947</v>
       </c>
       <c r="S29">
-        <v>0.05512221048192267</v>
+        <v>0.05226128512704574</v>
       </c>
       <c r="T29">
-        <v>0.05512221048192267</v>
+        <v>0.06289476147832029</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H30">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I30">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J30">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>64.39867969676834</v>
+        <v>73.63029506139469</v>
       </c>
       <c r="R30">
-        <v>64.39867969676834</v>
+        <v>662.6726555525521</v>
       </c>
       <c r="S30">
-        <v>0.007515292797728752</v>
+        <v>0.007723394238299627</v>
       </c>
       <c r="T30">
-        <v>0.007515292797728752</v>
+        <v>0.009294854446078325</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.01152113025883</v>
+        <v>6.279227333333334</v>
       </c>
       <c r="H31">
-        <v>6.01152113025883</v>
+        <v>18.837682</v>
       </c>
       <c r="I31">
-        <v>0.1844856116869792</v>
+        <v>0.1779710855497397</v>
       </c>
       <c r="J31">
-        <v>0.1844856116869792</v>
+        <v>0.2034290786507157</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>154.3219821218709</v>
+        <v>161.4298800941853</v>
       </c>
       <c r="R31">
-        <v>154.3219821218709</v>
+        <v>968.5792805651121</v>
       </c>
       <c r="S31">
-        <v>0.01800929593949302</v>
+        <v>0.01693306545585931</v>
       </c>
       <c r="T31">
-        <v>0.01800929593949302</v>
+        <v>0.01358559668473604</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H32">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I32">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J32">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>97.87562967179983</v>
+        <v>131.169297834925</v>
       </c>
       <c r="R32">
-        <v>97.87562967179983</v>
+        <v>524.6771913397</v>
       </c>
       <c r="S32">
-        <v>0.01142203564124554</v>
+        <v>0.01375890451471563</v>
       </c>
       <c r="T32">
-        <v>0.01142203564124554</v>
+        <v>0.007359286796907757</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H33">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I33">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J33">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>377.4545691271625</v>
+        <v>509.781876866935</v>
       </c>
       <c r="R33">
-        <v>377.4545691271625</v>
+        <v>3058.69126120161</v>
       </c>
       <c r="S33">
-        <v>0.04404875407676291</v>
+        <v>0.0534731852873968</v>
       </c>
       <c r="T33">
-        <v>0.04404875407676291</v>
+        <v>0.04290216267435243</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H34">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I34">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J34">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>541.7226310427708</v>
+        <v>701.629265989015</v>
       </c>
       <c r="R34">
-        <v>541.7226310427708</v>
+        <v>4209.77559593409</v>
       </c>
       <c r="S34">
-        <v>0.06321875241250802</v>
+        <v>0.07359687239937715</v>
       </c>
       <c r="T34">
-        <v>0.06321875241250802</v>
+        <v>0.05904763247282795</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H35">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I35">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J35">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>539.8963915841872</v>
+        <v>694.3360675767118</v>
       </c>
       <c r="R35">
-        <v>539.8963915841872</v>
+        <v>4166.01640546027</v>
       </c>
       <c r="S35">
-        <v>0.06300563120700123</v>
+        <v>0.07283185785543989</v>
       </c>
       <c r="T35">
-        <v>0.06300563120700123</v>
+        <v>0.0584338523466611</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H36">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I36">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J36">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>73.60879448989141</v>
+        <v>102.61192717954</v>
       </c>
       <c r="R36">
-        <v>73.60879448989141</v>
+        <v>615.6715630772401</v>
       </c>
       <c r="S36">
-        <v>0.008590108456946161</v>
+        <v>0.01076340066949976</v>
       </c>
       <c r="T36">
-        <v>0.008590108456946161</v>
+        <v>0.008635602385948545</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.87127167097911</v>
+        <v>8.750795</v>
       </c>
       <c r="H37">
-        <v>6.87127167097911</v>
+        <v>17.50159</v>
       </c>
       <c r="I37">
-        <v>0.2108702156775774</v>
+        <v>0.2480223127622444</v>
       </c>
       <c r="J37">
-        <v>0.2108702156775774</v>
+        <v>0.1890005537105138</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>176.3926701722665</v>
+        <v>224.97032080361</v>
       </c>
       <c r="R37">
-        <v>176.3926701722665</v>
+        <v>899.88128321444</v>
       </c>
       <c r="S37">
-        <v>0.02058493388311346</v>
+        <v>0.02359809203581518</v>
       </c>
       <c r="T37">
-        <v>0.02058493388311346</v>
+        <v>0.01262201703381602</v>
       </c>
     </row>
   </sheetData>
